--- a/weight-calculations-typical-queenslander__and__2021-weighting-pattern.xlsx
+++ b/weight-calculations-typical-queenslander__and__2021-weighting-pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickocal_mchome/Documents/_uq-aibe/explainer-series/inflation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E76C8D-AD65-2340-9A64-431DA4CA8909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D613A-103C-7349-89ED-D1E3D30C3F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="33340" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weights" sheetId="14" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Table 5" sheetId="17" r:id="rId6"/>
     <sheet name="price_index" sheetId="19" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Table 3'!$AE$9:$AG$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Table 4'!$AA$8:$AA$139</definedName>
@@ -60,7 +57,7 @@
     <author>Jie Yu</author>
   </authors>
   <commentList>
-    <comment ref="AM61" authorId="0" shapeId="0" xr:uid="{EBBD9421-EE3F-4848-A2D5-A803F5F78D8D}">
+    <comment ref="AM64" authorId="0" shapeId="0" xr:uid="{EBBD9421-EE3F-4848-A2D5-A803F5F78D8D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1769,7 +1766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="221">
   <si>
     <t>Sydney</t>
   </si>
@@ -2433,6 +2430,18 @@
   </si>
   <si>
     <t>2022 Spend</t>
+  </si>
+  <si>
+    <t>[640105.xlsx]AnnualPercentCh'!$BJ$305</t>
+  </si>
+  <si>
+    <t>[640105.xlsx]AnnualPercentCh'!$BF$305</t>
+  </si>
+  <si>
+    <t>source-New dwelling purchase by owner-occupiers</t>
+  </si>
+  <si>
+    <t>source-utilities</t>
   </si>
 </sst>
 </file>
@@ -3196,7 +3205,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3589,6 +3598,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="276" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="276" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="276" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3623,14 +3633,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="276" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="131" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3641,8 +3648,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="131" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3666,9 +3679,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="131" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="276" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="134" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3700,7 +3710,9 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="163" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="276" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="276" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="309">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4036,8 +4048,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>65087</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269194</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -4622,38 +4634,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="AnnualPercentCh"/>
-      <sheetName val="Index"/>
-      <sheetName val="Data1"/>
-      <sheetName val="Data2"/>
-      <sheetName val="Data3"/>
-      <sheetName val="Enquiries"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="305">
-          <cell r="BF305">
-            <v>13.7</v>
-          </cell>
-          <cell r="BJ305">
-            <v>3.6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Patrick O'Callaghan" id="{40A2DA61-A4D7-F045-A8DC-7ABF60DA6C92}" userId="S::uqpocall@uq.edu.au::79006e71-32c7-4aba-a445-b83e521a3653" providerId="AD"/>
@@ -4981,7 +4961,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AM61" dT="2022-06-09T00:28:40.55" personId="{40A2DA61-A4D7-F045-A8DC-7ABF60DA6C92}" id="{EBBD9421-EE3F-4848-A2D5-A803F5F78D8D}">
+  <threadedComment ref="AM64" dT="2022-06-09T00:28:40.55" personId="{40A2DA61-A4D7-F045-A8DC-7ABF60DA6C92}" id="{EBBD9421-EE3F-4848-A2D5-A803F5F78D8D}">
     <text>From CPI-640105.xlsx sheet AnnualPercentCh cell BE305</text>
   </threadedComment>
 </ThreadedComments>
@@ -4992,20 +4972,20 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP193"/>
+  <dimension ref="A1:AT193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="224" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="AI48" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="AB36" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AM69" sqref="AM69"/>
+      <selection pane="bottomRight" activeCell="AQ69" sqref="AQ69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="4" customWidth="1"/>
     <col min="4" max="30" width="6.33203125" style="4" customWidth="1"/>
     <col min="31" max="31" width="9.1640625" style="4"/>
     <col min="32" max="33" width="9.1640625" style="5"/>
@@ -7702,7 +7682,7 @@
       <c r="AI48" s="64"/>
       <c r="AM48" s="173"/>
     </row>
-    <row r="49" spans="1:42" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="62" t="s">
         <v>16</v>
       </c>
@@ -7791,7 +7771,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="50" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="62"/>
       <c r="B50" s="62" t="s">
         <v>64</v>
@@ -7847,7 +7827,7 @@
       <c r="AI50" s="64"/>
       <c r="AM50" s="173"/>
     </row>
-    <row r="51" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
       <c r="C51" s="68" t="s">
@@ -7903,7 +7883,7 @@
       <c r="AI51" s="64"/>
       <c r="AM51" s="173"/>
     </row>
-    <row r="52" spans="1:42" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
       <c r="C52" s="68" t="s">
@@ -7960,7 +7940,7 @@
       <c r="AI52" s="64"/>
       <c r="AM52" s="174"/>
     </row>
-    <row r="53" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="68"/>
       <c r="B53" s="68"/>
       <c r="C53" s="68" t="s">
@@ -8016,7 +7996,7 @@
       <c r="AI53" s="64"/>
       <c r="AM53" s="173"/>
     </row>
-    <row r="54" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="62"/>
       <c r="B54" s="62" t="s">
         <v>68</v>
@@ -8072,7 +8052,7 @@
       <c r="AI54" s="64"/>
       <c r="AM54" s="173"/>
     </row>
-    <row r="55" spans="1:42" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="68"/>
       <c r="B55" s="68"/>
       <c r="C55" s="68" t="s">
@@ -8129,7 +8109,7 @@
       <c r="AI55" s="64"/>
       <c r="AM55" s="174"/>
     </row>
-    <row r="56" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="68"/>
       <c r="B56" s="68"/>
       <c r="C56" s="68" t="s">
@@ -8185,7 +8165,7 @@
       <c r="AI56" s="64"/>
       <c r="AM56" s="173"/>
     </row>
-    <row r="57" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="68"/>
       <c r="B57" s="68"/>
       <c r="C57" s="68" t="s">
@@ -8241,7 +8221,7 @@
       <c r="AI57" s="64"/>
       <c r="AM57" s="173"/>
     </row>
-    <row r="58" spans="1:42" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="62"/>
       <c r="B58" s="62" t="s">
         <v>17</v>
@@ -8298,7 +8278,7 @@
       <c r="AI58" s="64"/>
       <c r="AM58" s="174"/>
     </row>
-    <row r="59" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="68"/>
       <c r="B59" s="68"/>
       <c r="C59" s="68" t="s">
@@ -8354,7 +8334,7 @@
       <c r="AI59" s="64"/>
       <c r="AM59" s="173"/>
     </row>
-    <row r="60" spans="1:42" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="68"/>
       <c r="B60" s="68"/>
       <c r="C60" s="68" t="s">
@@ -8411,7 +8391,7 @@
       <c r="AI60" s="64"/>
       <c r="AM60" s="174"/>
     </row>
-    <row r="61" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="62" t="s">
         <v>73</v>
       </c>
@@ -8478,28 +8458,9 @@
         <f>AG61*(AH61 + 1)</f>
         <v>241.6</v>
       </c>
-      <c r="AK61" s="32">
-        <v>28</v>
-      </c>
-      <c r="AL61" s="32">
-        <f>AK61/AK$140</f>
-        <v>0.23894862604539999</v>
-      </c>
-      <c r="AM61" s="229">
-        <f>[1]AnnualPercentCh!$BF$305/100</f>
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="AN61" s="32">
-        <f>AN$6*AL61</f>
-        <v>246.96719051557699</v>
-      </c>
-      <c r="AO61" s="64">
-        <f>AN61*(AM61 + 1)</f>
-        <v>280.8</v>
-      </c>
-      <c r="AP61" s="31"/>
-    </row>
-    <row r="62" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AM61" s="174"/>
+    </row>
+    <row r="62" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="71"/>
       <c r="B62" s="62" t="s">
         <v>74</v>
@@ -8555,7 +8516,7 @@
       <c r="AI62" s="64"/>
       <c r="AM62" s="173"/>
     </row>
-    <row r="63" spans="1:42" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="68"/>
       <c r="B63" s="69"/>
       <c r="C63" s="68" t="s">
@@ -8611,7 +8572,7 @@
       <c r="AI63" s="64"/>
       <c r="AM63" s="173"/>
     </row>
-    <row r="64" spans="1:42" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="68"/>
       <c r="B64" s="62" t="s">
         <v>138</v>
@@ -8666,9 +8627,35 @@
       <c r="AF64" s="64"/>
       <c r="AG64" s="64"/>
       <c r="AI64" s="64"/>
-      <c r="AM64" s="174"/>
-    </row>
-    <row r="65" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AK64" s="32">
+        <v>28</v>
+      </c>
+      <c r="AL64" s="32">
+        <f>AK64/AK$140</f>
+        <v>0.23894862604539999</v>
+      </c>
+      <c r="AM64" s="190">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AN64" s="32">
+        <f>AN$6*AL64</f>
+        <v>246.96719051557699</v>
+      </c>
+      <c r="AO64" s="64">
+        <f>AN64*(AM64 + 1)</f>
+        <v>280.8</v>
+      </c>
+      <c r="AP64" s="230" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ64" s="232" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR64" s="230"/>
+      <c r="AS64" s="230"/>
+      <c r="AT64" s="230"/>
+    </row>
+    <row r="65" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="68"/>
       <c r="B65" s="69"/>
       <c r="C65" s="68" t="s">
@@ -8724,7 +8711,7 @@
       <c r="AI65" s="64"/>
       <c r="AM65" s="173"/>
     </row>
-    <row r="66" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="62"/>
       <c r="B66" s="62" t="s">
         <v>75</v>
@@ -8780,7 +8767,7 @@
       <c r="AI66" s="64"/>
       <c r="AM66" s="173"/>
     </row>
-    <row r="67" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="68"/>
       <c r="B67" s="68"/>
       <c r="C67" s="68" t="s">
@@ -8836,7 +8823,7 @@
       <c r="AI67" s="64"/>
       <c r="AM67" s="173"/>
     </row>
-    <row r="68" spans="1:41" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
       <c r="C68" s="68" t="s">
@@ -8893,7 +8880,7 @@
       <c r="AI68" s="64"/>
       <c r="AM68" s="174"/>
     </row>
-    <row r="69" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="62"/>
       <c r="B69" s="62" t="s">
         <v>78</v>
@@ -8954,8 +8941,7 @@
         <f>AK69/AK$140</f>
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="AM69" s="229">
-        <f>[1]AnnualPercentCh!$BJ$305/100</f>
+      <c r="AM69" s="190">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AN69" s="32">
@@ -8966,8 +8952,17 @@
         <f>AN69*(AM69 + 1)</f>
         <v>32.020000000000003</v>
       </c>
-    </row>
-    <row r="70" spans="1:41" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP69" s="230" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ69" s="232" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR69" s="231"/>
+      <c r="AS69" s="231"/>
+      <c r="AT69" s="231"/>
+    </row>
+    <row r="70" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="68"/>
       <c r="B70" s="68"/>
       <c r="C70" s="68" t="s">
@@ -9024,7 +9019,7 @@
       <c r="AI70" s="64"/>
       <c r="AM70" s="174"/>
     </row>
-    <row r="71" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="68"/>
       <c r="B71" s="68"/>
       <c r="C71" s="68" t="s">
@@ -9080,7 +9075,7 @@
       <c r="AI71" s="64"/>
       <c r="AM71" s="173"/>
     </row>
-    <row r="72" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="68"/>
       <c r="B72" s="68"/>
       <c r="C72" s="68" t="s">
@@ -9136,7 +9131,7 @@
       <c r="AI72" s="64"/>
       <c r="AM72" s="173"/>
     </row>
-    <row r="73" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="62" t="s">
         <v>81</v>
       </c>
@@ -9224,7 +9219,7 @@
         <v>88.35</v>
       </c>
     </row>
-    <row r="74" spans="1:41" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="62"/>
       <c r="B74" s="62" t="s">
         <v>20</v>
@@ -9281,7 +9276,7 @@
       <c r="AI74" s="64"/>
       <c r="AM74" s="174"/>
     </row>
-    <row r="75" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
       <c r="C75" s="68" t="s">
@@ -9337,7 +9332,7 @@
       <c r="AI75" s="64"/>
       <c r="AM75" s="173"/>
     </row>
-    <row r="76" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="68"/>
       <c r="B76" s="68"/>
       <c r="C76" s="68" t="s">
@@ -9393,7 +9388,7 @@
       <c r="AI76" s="64"/>
       <c r="AM76" s="173"/>
     </row>
-    <row r="77" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="68"/>
       <c r="B77" s="62" t="s">
         <v>84</v>
@@ -9449,7 +9444,7 @@
       <c r="AI77" s="64"/>
       <c r="AM77" s="173"/>
     </row>
-    <row r="78" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
       <c r="C78" s="68" t="s">
@@ -9505,7 +9500,7 @@
       <c r="AI78" s="64"/>
       <c r="AM78" s="173"/>
     </row>
-    <row r="79" spans="1:41" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:46" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="62"/>
       <c r="B79" s="62" t="s">
         <v>85</v>
@@ -9562,7 +9557,7 @@
       <c r="AI79" s="64"/>
       <c r="AM79" s="174"/>
     </row>
-    <row r="80" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:46" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="68"/>
       <c r="B80" s="68"/>
       <c r="C80" s="68" t="s">
@@ -13251,36 +13246,36 @@
       </c>
     </row>
     <row r="141" spans="1:41" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="190"/>
-      <c r="B141" s="190"/>
-      <c r="C141" s="190"/>
-      <c r="D141" s="191"/>
-      <c r="E141" s="191"/>
-      <c r="F141" s="191"/>
-      <c r="G141" s="191"/>
-      <c r="H141" s="191"/>
-      <c r="I141" s="191"/>
-      <c r="J141" s="191"/>
-      <c r="K141" s="191"/>
-      <c r="L141" s="191"/>
-      <c r="M141" s="190"/>
-      <c r="N141" s="190"/>
-      <c r="O141" s="190"/>
-      <c r="P141" s="190"/>
-      <c r="Q141" s="190"/>
-      <c r="R141" s="190"/>
-      <c r="S141" s="190"/>
-      <c r="T141" s="190"/>
-      <c r="U141" s="190"/>
-      <c r="V141" s="190"/>
-      <c r="W141" s="190"/>
-      <c r="X141" s="190"/>
-      <c r="Y141" s="190"/>
-      <c r="Z141" s="190"/>
-      <c r="AA141" s="190"/>
-      <c r="AB141" s="190"/>
-      <c r="AC141" s="190"/>
-      <c r="AD141" s="190"/>
+      <c r="A141" s="191"/>
+      <c r="B141" s="191"/>
+      <c r="C141" s="191"/>
+      <c r="D141" s="192"/>
+      <c r="E141" s="192"/>
+      <c r="F141" s="192"/>
+      <c r="G141" s="192"/>
+      <c r="H141" s="192"/>
+      <c r="I141" s="192"/>
+      <c r="J141" s="192"/>
+      <c r="K141" s="192"/>
+      <c r="L141" s="192"/>
+      <c r="M141" s="191"/>
+      <c r="N141" s="191"/>
+      <c r="O141" s="191"/>
+      <c r="P141" s="191"/>
+      <c r="Q141" s="191"/>
+      <c r="R141" s="191"/>
+      <c r="S141" s="191"/>
+      <c r="T141" s="191"/>
+      <c r="U141" s="191"/>
+      <c r="V141" s="191"/>
+      <c r="W141" s="191"/>
+      <c r="X141" s="191"/>
+      <c r="Y141" s="191"/>
+      <c r="Z141" s="191"/>
+      <c r="AA141" s="191"/>
+      <c r="AB141" s="191"/>
+      <c r="AC141" s="191"/>
+      <c r="AD141" s="191"/>
       <c r="AF141" s="64"/>
       <c r="AG141" s="64"/>
       <c r="AI141" s="64"/>
@@ -14057,20 +14052,20 @@
     <col min="13" max="16384" width="9.1640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="195" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:4" s="196" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:4" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="3" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="194" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
     </row>
     <row r="4" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -14184,10 +14179,10 @@
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="197" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="196"/>
+      <c r="C21" s="197"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -14196,10 +14191,10 @@
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="197" t="s">
+      <c r="B23" s="198" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="197"/>
+      <c r="C23" s="198"/>
       <c r="D23" s="29"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -14298,7 +14293,7 @@
     <col min="8" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="195" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:12" s="196" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:12" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>149</v>
@@ -14345,11 +14340,11 @@
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
-      <c r="D6" s="201" t="s">
+      <c r="D6" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
       <c r="G6" s="55"/>
       <c r="H6" s="49"/>
       <c r="I6" s="31"/>
@@ -14363,11 +14358,11 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="199"/>
-      <c r="F7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="201"/>
       <c r="G7" s="63"/>
       <c r="H7" s="49"/>
       <c r="I7" s="1"/>
@@ -17487,7 +17482,7 @@
     <col min="31" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="195" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:33" s="196" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:33" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>149</v>
@@ -17627,69 +17622,69 @@
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="95"/>
-      <c r="D6" s="209" t="s">
+      <c r="D6" s="211" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="210"/>
-      <c r="R6" s="210"/>
-      <c r="S6" s="210"/>
-      <c r="T6" s="210"/>
-      <c r="U6" s="210"/>
-      <c r="V6" s="210"/>
-      <c r="W6" s="210"/>
-      <c r="X6" s="210"/>
-      <c r="Y6" s="210"/>
-      <c r="Z6" s="210"/>
-      <c r="AA6" s="210"/>
-      <c r="AB6" s="210"/>
-      <c r="AC6" s="210"/>
-      <c r="AD6" s="211"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="212"/>
+      <c r="P6" s="212"/>
+      <c r="Q6" s="212"/>
+      <c r="R6" s="212"/>
+      <c r="S6" s="212"/>
+      <c r="T6" s="212"/>
+      <c r="U6" s="212"/>
+      <c r="V6" s="212"/>
+      <c r="W6" s="212"/>
+      <c r="X6" s="212"/>
+      <c r="Y6" s="212"/>
+      <c r="Z6" s="212"/>
+      <c r="AA6" s="212"/>
+      <c r="AB6" s="212"/>
+      <c r="AC6" s="212"/>
+      <c r="AD6" s="213"/>
     </row>
     <row r="7" spans="1:33" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="95"/>
-      <c r="D7" s="212" t="s">
+      <c r="D7" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="213"/>
-      <c r="N7" s="213"/>
-      <c r="O7" s="213"/>
-      <c r="P7" s="213"/>
-      <c r="Q7" s="213"/>
-      <c r="R7" s="213"/>
-      <c r="S7" s="213"/>
-      <c r="T7" s="213"/>
-      <c r="U7" s="213"/>
-      <c r="V7" s="213"/>
-      <c r="W7" s="213"/>
-      <c r="X7" s="213"/>
-      <c r="Y7" s="213"/>
-      <c r="Z7" s="213"/>
-      <c r="AA7" s="213"/>
-      <c r="AB7" s="213"/>
-      <c r="AC7" s="213"/>
-      <c r="AD7" s="214"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
+      <c r="R7" s="215"/>
+      <c r="S7" s="215"/>
+      <c r="T7" s="215"/>
+      <c r="U7" s="215"/>
+      <c r="V7" s="215"/>
+      <c r="W7" s="215"/>
+      <c r="X7" s="215"/>
+      <c r="Y7" s="215"/>
+      <c r="Z7" s="215"/>
+      <c r="AA7" s="215"/>
+      <c r="AB7" s="215"/>
+      <c r="AC7" s="215"/>
+      <c r="AD7" s="216"/>
     </row>
     <row r="8" spans="1:33" s="32" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="66" t="s">
@@ -17697,11 +17692,11 @@
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="202" t="s">
+      <c r="D8" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="204"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="210"/>
       <c r="G8" s="205" t="s">
         <v>1</v>
       </c>
@@ -17737,11 +17732,11 @@
       </c>
       <c r="Z8" s="206"/>
       <c r="AA8" s="207"/>
-      <c r="AB8" s="215" t="s">
+      <c r="AB8" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="AC8" s="216"/>
-      <c r="AD8" s="217"/>
+      <c r="AC8" s="218"/>
+      <c r="AD8" s="219"/>
     </row>
     <row r="9" spans="1:33" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="62" t="s">
@@ -25010,36 +25005,36 @@
       <c r="AG140" s="67"/>
     </row>
     <row r="141" spans="1:33" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="190"/>
-      <c r="B141" s="190"/>
-      <c r="C141" s="190"/>
-      <c r="D141" s="218"/>
-      <c r="E141" s="218"/>
-      <c r="F141" s="218"/>
-      <c r="G141" s="218"/>
-      <c r="H141" s="218"/>
-      <c r="I141" s="218"/>
-      <c r="J141" s="218"/>
-      <c r="K141" s="218"/>
-      <c r="L141" s="218"/>
-      <c r="M141" s="208"/>
-      <c r="N141" s="208"/>
-      <c r="O141" s="208"/>
-      <c r="P141" s="208"/>
-      <c r="Q141" s="208"/>
-      <c r="R141" s="208"/>
-      <c r="S141" s="208"/>
-      <c r="T141" s="208"/>
-      <c r="U141" s="208"/>
-      <c r="V141" s="208"/>
-      <c r="W141" s="208"/>
-      <c r="X141" s="208"/>
-      <c r="Y141" s="208"/>
-      <c r="Z141" s="208"/>
-      <c r="AA141" s="208"/>
-      <c r="AB141" s="208"/>
-      <c r="AC141" s="208"/>
-      <c r="AD141" s="208"/>
+      <c r="A141" s="191"/>
+      <c r="B141" s="191"/>
+      <c r="C141" s="191"/>
+      <c r="D141" s="204"/>
+      <c r="E141" s="204"/>
+      <c r="F141" s="204"/>
+      <c r="G141" s="204"/>
+      <c r="H141" s="204"/>
+      <c r="I141" s="204"/>
+      <c r="J141" s="204"/>
+      <c r="K141" s="204"/>
+      <c r="L141" s="204"/>
+      <c r="M141" s="203"/>
+      <c r="N141" s="203"/>
+      <c r="O141" s="203"/>
+      <c r="P141" s="203"/>
+      <c r="Q141" s="203"/>
+      <c r="R141" s="203"/>
+      <c r="S141" s="203"/>
+      <c r="T141" s="203"/>
+      <c r="U141" s="203"/>
+      <c r="V141" s="203"/>
+      <c r="W141" s="203"/>
+      <c r="X141" s="203"/>
+      <c r="Y141" s="203"/>
+      <c r="Z141" s="203"/>
+      <c r="AA141" s="203"/>
+      <c r="AB141" s="203"/>
+      <c r="AC141" s="203"/>
+      <c r="AD141" s="203"/>
     </row>
     <row r="142" spans="1:33" s="32" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="49"/>
@@ -29044,12 +29039,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Y141:AA141"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="S141:U141"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="J141:L141"/>
-    <mergeCell ref="S8:U8"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="M8:O8"/>
@@ -29066,6 +29055,12 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="G141:I141"/>
+    <mergeCell ref="Y141:AA141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="S141:U141"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="J141:L141"/>
+    <mergeCell ref="S8:U8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A143" r:id="rId1" display="© Commonwealth of Australia &lt;&lt;yyyy&gt;&gt;" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -29095,7 +29090,7 @@
     <col min="31" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="195" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:31" s="196" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:31" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>149</v>
@@ -29234,35 +29229,35 @@
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
-      <c r="D6" s="222" t="s">
+      <c r="D6" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="208"/>
-      <c r="L6" s="208"/>
-      <c r="M6" s="208"/>
-      <c r="N6" s="208"/>
-      <c r="O6" s="208"/>
-      <c r="P6" s="208"/>
-      <c r="Q6" s="208"/>
-      <c r="R6" s="208"/>
-      <c r="S6" s="208"/>
-      <c r="T6" s="208"/>
-      <c r="U6" s="208"/>
-      <c r="V6" s="208"/>
-      <c r="W6" s="208"/>
-      <c r="X6" s="208"/>
-      <c r="Y6" s="208"/>
-      <c r="Z6" s="208"/>
-      <c r="AA6" s="208"/>
-      <c r="AB6" s="208"/>
-      <c r="AC6" s="208"/>
-      <c r="AD6" s="223"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="203"/>
+      <c r="AA6" s="203"/>
+      <c r="AB6" s="203"/>
+      <c r="AC6" s="203"/>
+      <c r="AD6" s="224"/>
       <c r="AE6" s="49"/>
     </row>
     <row r="7" spans="1:31" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -29271,51 +29266,51 @@
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="226" t="s">
+      <c r="D7" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="220" t="s">
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="219"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="219" t="s">
+      <c r="H7" s="220"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="219"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="220" t="s">
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="219"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="219" t="s">
+      <c r="N7" s="220"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="219"/>
-      <c r="R7" s="219"/>
-      <c r="S7" s="220" t="s">
+      <c r="Q7" s="220"/>
+      <c r="R7" s="220"/>
+      <c r="S7" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="219"/>
-      <c r="U7" s="221"/>
-      <c r="V7" s="219" t="s">
+      <c r="T7" s="220"/>
+      <c r="U7" s="222"/>
+      <c r="V7" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="W7" s="219"/>
-      <c r="X7" s="219"/>
-      <c r="Y7" s="220" t="s">
+      <c r="W7" s="220"/>
+      <c r="X7" s="220"/>
+      <c r="Y7" s="221" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="219"/>
-      <c r="AA7" s="221"/>
-      <c r="AB7" s="224" t="s">
+      <c r="Z7" s="220"/>
+      <c r="AA7" s="222"/>
+      <c r="AB7" s="225" t="s">
         <v>136</v>
       </c>
-      <c r="AC7" s="224"/>
-      <c r="AD7" s="225"/>
+      <c r="AC7" s="225"/>
+      <c r="AD7" s="226"/>
       <c r="AE7" s="49"/>
     </row>
     <row r="8" spans="1:31" s="31" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -41677,7 +41672,7 @@
     <col min="12" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="228" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:12" s="229" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:12" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="79" t="s">
         <v>149</v>
@@ -41740,16 +41735,16 @@
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
-      <c r="D6" s="201" t="s">
+      <c r="D6" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201" t="s">
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
     </row>
@@ -41759,16 +41754,16 @@
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="199"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="198" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="199" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
     </row>
     <row r="8" spans="1:12" s="54" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="62" t="s">
